--- a/biology/Zoologie/Grive_à_tête_orange/Grive_à_tête_orange.xlsx
+++ b/biology/Zoologie/Grive_à_tête_orange/Grive_à_tête_orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_t%C3%AAte_orange</t>
+          <t>Grive_à_tête_orange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geokichla citrina
 La Grive à tête orange (Geokichla citrina) est une espèce de passereaux de la famille des Turdidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_t%C3%AAte_orange</t>
+          <t>Grive_à_tête_orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grive orange mesure jusqu'à 22 cm de long de la tête à la queue[1].
-Cet oiseau timide et discret recherche sa nourriture principalement dans le sous-bois dense près du sol, le plus souvent de l'aube au crépuscule. Il se nourrit d'insectes, de vers de terre et de fruits[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grive orange mesure jusqu'à 22 cm de long de la tête à la queue.
+Cet oiseau timide et discret recherche sa nourriture principalement dans le sous-bois dense près du sol, le plus souvent de l'aube au crépuscule. Il se nourrit d'insectes, de vers de terre et de fruits.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_t%C3%AAte_orange</t>
+          <t>Grive_à_tête_orange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_t%C3%AAte_orange</t>
+          <t>Grive_à_tête_orange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire recouvre partiellement l'Himalaya (jusqu'à 1830m), le sous-continent indien, le sud de la Chine et l'Asie du Sud-Est.
 </t>
